--- a/medicine/Sexualité et sexologie/Affaire_de_la_traite_des_Blanches/Affaire_de_la_traite_des_Blanches.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_de_la_traite_des_Blanches/Affaire_de_la_traite_des_Blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'affaire de la traite des Blanches, également connue sous le nom de  De handel in blanke slavinnen était le nom donné à un scandale international qui s'est déroulé à Bruxelles en Belgique en 1880–1881[1]. Il a attiré l'attention internationale sur la question du trafic sexuel et est devenu le point de départ de la campagne internationale contre le trafic sexuel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affaire de la traite des Blanches, également connue sous le nom de  De handel in blanke slavinnen était le nom donné à un scandale international qui s'est déroulé à Bruxelles en Belgique en 1880–1881. Il a attiré l'attention internationale sur la question du trafic sexuel et est devenu le point de départ de la campagne internationale contre le trafic sexuel.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>L'affaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1880, il a été révélé qu'une cinquantaine de filles étrangères avaient été victimes de trafic sexuel illégal les obligeant à travailler dans des maisons closes à Bruxelles. L'affaire est devenue un scandale majeur qui a attiré l'infamie internationale, d'autant plus qu'il est devenu connu que certaines personnes au sein des autorités avaient été impliquées dans ces méfaits. Le scandale a pris fin lorsque le bourgmestre de Bruxelles ainsi que le chef de la police de la ville ont été contraints de démissionner de leurs fonctions.
 </t>
@@ -542,9 +556,11 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'affaire de la traite des Blanches a attiré l'attention internationale sur le problème persistant du trafic sexuel. La couverture médiatique intense a suscité l'intérêt du public pour la question, ce qui a a abouti à une campagne internationale contre le trafic sexuel, qui a été qualifiée de traite des esclaves blanches. Les campagnes contre le trafic sexuel ont commencé en Belgique après le scandale de 1880, et se sont étendues à la Grande-Bretagne en 1885, à la France en 1902 et aux États-Unis en 1907[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affaire de la traite des Blanches a attiré l'attention internationale sur le problème persistant du trafic sexuel. La couverture médiatique intense a suscité l'intérêt du public pour la question, ce qui a a abouti à une campagne internationale contre le trafic sexuel, qui a été qualifiée de traite des esclaves blanches. Les campagnes contre le trafic sexuel ont commencé en Belgique après le scandale de 1880, et se sont étendues à la Grande-Bretagne en 1885, à la France en 1902 et aux États-Unis en 1907.
 </t>
         </is>
       </c>
